--- a/biology/Botanique/Oxyanthus_doucetii/Oxyanthus_doucetii.xlsx
+++ b/biology/Botanique/Oxyanthus_doucetii/Oxyanthus_doucetii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxyanthus doucetii est une espèce de plantes de la famille des Rubiaceae et du genre Oxyanthus, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique doucetii rend hommage au professeur Jean-Louis Doucet, spécialiste des forêts tropicales d'Afrique centrale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique doucetii rend hommage au professeur Jean-Louis Doucet, spécialiste des forêts tropicales d'Afrique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbrisseau d'environ 5 m de hauteur, avec des branches horizontales, qui pousse à la lisière des forêts[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbrisseau d'environ 5 m de hauteur, avec des branches horizontales, qui pousse à la lisière des forêts.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée au Cameroun le 28 avril 1975 par J.J.F.E. de Wilde sur la route entre Ebolowa et Minkok, dans la région du Sud[3]. Elle a été décrite à plusieurs reprises dans les années 2000, à nouveau dans la même région et dans celle du Centre[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée au Cameroun le 28 avril 1975 par J.J.F.E. de Wilde sur la route entre Ebolowa et Minkok, dans la région du Sud. Elle a été décrite à plusieurs reprises dans les années 2000, à nouveau dans la même région et dans celle du Centre
 </t>
         </is>
       </c>
